--- a/Ciclo II/Planeación y requerimientos/PD-Control-de-asignaciones.xlsx
+++ b/Ciclo II/Planeación y requerimientos/PD-Control-de-asignaciones.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\famil\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A2C33B-960C-4261-978D-054DF6514541}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Asignaciones" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Asignaciones!$A$7:$K$56</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
@@ -183,7 +184,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="h:mm:ss;@"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
@@ -706,21 +707,75 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -742,63 +797,9 @@
     <xf numFmtId="1" fontId="5" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Euro" xfId="1"/>
+    <cellStyle name="Euro" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -826,7 +827,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1024,6 +1025,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1059,6 +1077,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1234,11 +1269,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1259,64 +1294,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="58"/>
-      <c r="B1" s="60" t="s">
+      <c r="A1" s="49"/>
+      <c r="B1" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="63"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="54"/>
     </row>
     <row r="2" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="59"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="65"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="70" t="s">
+      <c r="A3" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="70" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="68" t="s">
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="69"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="75"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="66"/>
       <c r="J4" s="3" t="s">
         <v>9</v>
       </c>
@@ -1326,19 +1361,19 @@
     </row>
     <row r="5" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="53"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="71"/>
     </row>
     <row r="7" spans="1:11" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="29" t="s">
@@ -1365,11 +1400,11 @@
       <c r="H7" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="I7" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="56"/>
-      <c r="K7" s="57"/>
+      <c r="I7" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="74"/>
+      <c r="K7" s="75"/>
     </row>
     <row r="8" spans="1:11" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
@@ -1387,12 +1422,18 @@
       <c r="E8" s="12">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="50"/>
+      <c r="F8" s="11">
+        <v>43209</v>
+      </c>
+      <c r="G8" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H8" s="13">
+        <v>0</v>
+      </c>
+      <c r="I8" s="46"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="48"/>
     </row>
     <row r="9" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
@@ -1410,12 +1451,18 @@
       <c r="E9" s="12">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="50"/>
+      <c r="F9" s="11">
+        <v>43209</v>
+      </c>
+      <c r="G9" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H9" s="13">
+        <v>0</v>
+      </c>
+      <c r="I9" s="46"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="48"/>
     </row>
     <row r="10" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
@@ -1433,12 +1480,18 @@
       <c r="E10" s="12">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="50"/>
+      <c r="F10" s="11">
+        <v>43209</v>
+      </c>
+      <c r="G10" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0</v>
+      </c>
+      <c r="I10" s="46"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="48"/>
     </row>
     <row r="11" spans="1:11" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
@@ -1456,12 +1509,18 @@
       <c r="E11" s="12">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="50"/>
+      <c r="F11" s="11">
+        <v>43209</v>
+      </c>
+      <c r="G11" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0</v>
+      </c>
+      <c r="I11" s="46"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="48"/>
     </row>
     <row r="12" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
@@ -1479,12 +1538,18 @@
       <c r="E12" s="12">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="50"/>
+      <c r="F12" s="11">
+        <v>43209</v>
+      </c>
+      <c r="G12" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H12" s="13">
+        <v>0</v>
+      </c>
+      <c r="I12" s="46"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="48"/>
     </row>
     <row r="13" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
@@ -1502,12 +1567,18 @@
       <c r="E13" s="12">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="50"/>
+      <c r="F13" s="11">
+        <v>43209</v>
+      </c>
+      <c r="G13" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H13" s="13">
+        <v>0</v>
+      </c>
+      <c r="I13" s="46"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="48"/>
     </row>
     <row r="14" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
@@ -1525,12 +1596,18 @@
       <c r="E14" s="12">
         <v>0.72916666666666663</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="50"/>
+      <c r="F14" s="11">
+        <v>43209</v>
+      </c>
+      <c r="G14" s="12">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="H14" s="13">
+        <v>0</v>
+      </c>
+      <c r="I14" s="46"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="48"/>
     </row>
     <row r="15" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
@@ -1548,12 +1625,18 @@
       <c r="E15" s="12">
         <v>0.72916666666666663</v>
       </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="50"/>
+      <c r="F15" s="11">
+        <v>43209</v>
+      </c>
+      <c r="G15" s="12">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0</v>
+      </c>
+      <c r="I15" s="46"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="48"/>
     </row>
     <row r="16" spans="1:11" s="14" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
@@ -1571,12 +1654,18 @@
       <c r="E16" s="12">
         <v>0.91666666666666663</v>
       </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="50"/>
+      <c r="F16" s="11">
+        <v>43211</v>
+      </c>
+      <c r="G16" s="12">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="H16" s="13">
+        <v>0</v>
+      </c>
+      <c r="I16" s="46"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="48"/>
     </row>
     <row r="17" spans="1:11" s="14" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
@@ -1594,12 +1683,18 @@
       <c r="E17" s="12">
         <v>0.91666666666666663</v>
       </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="50"/>
+      <c r="F17" s="11">
+        <v>43211</v>
+      </c>
+      <c r="G17" s="12">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="H17" s="13">
+        <v>0</v>
+      </c>
+      <c r="I17" s="46"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="48"/>
     </row>
     <row r="18" spans="1:11" s="14" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
@@ -1617,12 +1712,18 @@
       <c r="E18" s="12">
         <v>0.91666666666666663</v>
       </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="50"/>
+      <c r="F18" s="11">
+        <v>43211</v>
+      </c>
+      <c r="G18" s="12">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0</v>
+      </c>
+      <c r="I18" s="46"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="48"/>
     </row>
     <row r="19" spans="1:11" s="14" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
@@ -1640,12 +1741,18 @@
       <c r="E19" s="12">
         <v>0.91666666666666663</v>
       </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="50"/>
+      <c r="F19" s="11">
+        <v>43211</v>
+      </c>
+      <c r="G19" s="12">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="H19" s="13">
+        <v>0</v>
+      </c>
+      <c r="I19" s="46"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="48"/>
     </row>
     <row r="20" spans="1:11" s="14" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
@@ -1663,12 +1770,18 @@
       <c r="E20" s="12">
         <v>0.91666666666666663</v>
       </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="50"/>
+      <c r="F20" s="11">
+        <v>43211</v>
+      </c>
+      <c r="G20" s="12">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="H20" s="13">
+        <v>0</v>
+      </c>
+      <c r="I20" s="46"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="48"/>
     </row>
     <row r="21" spans="1:11" s="14" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
@@ -1686,12 +1799,18 @@
       <c r="E21" s="12">
         <v>0.91666666666666663</v>
       </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="50"/>
+      <c r="F21" s="11">
+        <v>43211</v>
+      </c>
+      <c r="G21" s="12">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="H21" s="13">
+        <v>0</v>
+      </c>
+      <c r="I21" s="46"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="48"/>
     </row>
     <row r="22" spans="1:11" s="14" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
@@ -1709,12 +1828,18 @@
       <c r="E22" s="12">
         <v>0.95833333333333337</v>
       </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="50"/>
+      <c r="F22" s="11">
+        <v>43211</v>
+      </c>
+      <c r="G22" s="12">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="H22" s="13">
+        <v>0</v>
+      </c>
+      <c r="I22" s="46"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="48"/>
     </row>
     <row r="23" spans="1:11" s="14" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
@@ -1732,12 +1857,18 @@
       <c r="E23" s="12">
         <v>0.95833333333333337</v>
       </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="50"/>
+      <c r="F23" s="11">
+        <v>43211</v>
+      </c>
+      <c r="G23" s="12">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="H23" s="13">
+        <v>0</v>
+      </c>
+      <c r="I23" s="46"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="48"/>
     </row>
     <row r="24" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
@@ -1755,12 +1886,18 @@
       <c r="E24" s="12">
         <v>0.77083333333333337</v>
       </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="50"/>
+      <c r="F24" s="11">
+        <v>43213</v>
+      </c>
+      <c r="G24" s="12">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="H24" s="13">
+        <v>0</v>
+      </c>
+      <c r="I24" s="46"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="48"/>
     </row>
     <row r="25" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
@@ -1778,12 +1915,18 @@
       <c r="E25" s="12">
         <v>0.77083333333333337</v>
       </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="50"/>
+      <c r="F25" s="11">
+        <v>43213</v>
+      </c>
+      <c r="G25" s="12">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="H25" s="13">
+        <v>0</v>
+      </c>
+      <c r="I25" s="46"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="48"/>
     </row>
     <row r="26" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
@@ -1801,12 +1944,18 @@
       <c r="E26" s="12">
         <v>0.77083333333333337</v>
       </c>
-      <c r="F26" s="11"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="50"/>
+      <c r="F26" s="11">
+        <v>43213</v>
+      </c>
+      <c r="G26" s="12">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="H26" s="13">
+        <v>0</v>
+      </c>
+      <c r="I26" s="46"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="48"/>
     </row>
     <row r="27" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
@@ -1824,12 +1973,18 @@
       <c r="E27" s="12">
         <v>0.77083333333333337</v>
       </c>
-      <c r="F27" s="11"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="50"/>
+      <c r="F27" s="11">
+        <v>43213</v>
+      </c>
+      <c r="G27" s="12">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="H27" s="13">
+        <v>0</v>
+      </c>
+      <c r="I27" s="46"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="48"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
@@ -1847,12 +2002,18 @@
       <c r="E28" s="12">
         <v>0.77083333333333337</v>
       </c>
-      <c r="F28" s="11"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="50"/>
+      <c r="F28" s="11">
+        <v>43213</v>
+      </c>
+      <c r="G28" s="12">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="H28" s="13">
+        <v>0</v>
+      </c>
+      <c r="I28" s="46"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="48"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
@@ -1870,12 +2031,18 @@
       <c r="E29" s="12">
         <v>0.77083333333333337</v>
       </c>
-      <c r="F29" s="11"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="50"/>
+      <c r="F29" s="11">
+        <v>43213</v>
+      </c>
+      <c r="G29" s="12">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="H29" s="13">
+        <v>0</v>
+      </c>
+      <c r="I29" s="46"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="48"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
@@ -1893,12 +2060,18 @@
       <c r="E30" s="12">
         <v>0.78125</v>
       </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="50"/>
+      <c r="F30" s="11">
+        <v>43213</v>
+      </c>
+      <c r="G30" s="12">
+        <v>0.78125</v>
+      </c>
+      <c r="H30" s="13">
+        <v>0</v>
+      </c>
+      <c r="I30" s="46"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="48"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
@@ -1916,12 +2089,18 @@
       <c r="E31" s="12">
         <v>0.78125</v>
       </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="50"/>
+      <c r="F31" s="11">
+        <v>43213</v>
+      </c>
+      <c r="G31" s="12">
+        <v>0.78125</v>
+      </c>
+      <c r="H31" s="13">
+        <v>0</v>
+      </c>
+      <c r="I31" s="46"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="48"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
@@ -1939,12 +2118,18 @@
       <c r="E32" s="12">
         <v>0.78125</v>
       </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="50"/>
+      <c r="F32" s="11">
+        <v>43213</v>
+      </c>
+      <c r="G32" s="12">
+        <v>0.78125</v>
+      </c>
+      <c r="H32" s="13">
+        <v>0</v>
+      </c>
+      <c r="I32" s="46"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="48"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
@@ -1962,12 +2147,18 @@
       <c r="E33" s="12">
         <v>0.78125</v>
       </c>
-      <c r="F33" s="11"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="50"/>
+      <c r="F33" s="11">
+        <v>43213</v>
+      </c>
+      <c r="G33" s="12">
+        <v>0.78125</v>
+      </c>
+      <c r="H33" s="13">
+        <v>0</v>
+      </c>
+      <c r="I33" s="46"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="48"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
@@ -1985,12 +2176,18 @@
       <c r="E34" s="12">
         <v>0.78125</v>
       </c>
-      <c r="F34" s="11"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="50"/>
+      <c r="F34" s="11">
+        <v>43213</v>
+      </c>
+      <c r="G34" s="12">
+        <v>0.78125</v>
+      </c>
+      <c r="H34" s="13">
+        <v>0</v>
+      </c>
+      <c r="I34" s="46"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="48"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
@@ -2008,12 +2205,18 @@
       <c r="E35" s="12">
         <v>0.78125</v>
       </c>
-      <c r="F35" s="11"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="50"/>
+      <c r="F35" s="11">
+        <v>43213</v>
+      </c>
+      <c r="G35" s="12">
+        <v>0.78125</v>
+      </c>
+      <c r="H35" s="13">
+        <v>0</v>
+      </c>
+      <c r="I35" s="46"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="48"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
@@ -2031,12 +2234,18 @@
       <c r="E36" s="12">
         <v>0.79166666666666663</v>
       </c>
-      <c r="F36" s="11"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="48"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="50"/>
+      <c r="F36" s="11">
+        <v>43213</v>
+      </c>
+      <c r="G36" s="12">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="H36" s="13">
+        <v>0</v>
+      </c>
+      <c r="I36" s="46"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="48"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
@@ -2054,12 +2263,18 @@
       <c r="E37" s="12">
         <v>0.79166666666666663</v>
       </c>
-      <c r="F37" s="11"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="48"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="50"/>
+      <c r="F37" s="11">
+        <v>43213</v>
+      </c>
+      <c r="G37" s="12">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="H37" s="13">
+        <v>0</v>
+      </c>
+      <c r="I37" s="46"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="48"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
@@ -2077,12 +2292,18 @@
       <c r="E38" s="12">
         <v>0.79166666666666663</v>
       </c>
-      <c r="F38" s="11"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="48"/>
-      <c r="J38" s="49"/>
-      <c r="K38" s="50"/>
+      <c r="F38" s="11">
+        <v>43213</v>
+      </c>
+      <c r="G38" s="12">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="H38" s="13">
+        <v>0</v>
+      </c>
+      <c r="I38" s="46"/>
+      <c r="J38" s="47"/>
+      <c r="K38" s="48"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
@@ -2100,12 +2321,18 @@
       <c r="E39" s="12">
         <v>0.79166666666666663</v>
       </c>
-      <c r="F39" s="11"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="48"/>
-      <c r="J39" s="49"/>
-      <c r="K39" s="50"/>
+      <c r="F39" s="11">
+        <v>43213</v>
+      </c>
+      <c r="G39" s="12">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="H39" s="13">
+        <v>0</v>
+      </c>
+      <c r="I39" s="46"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="48"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
@@ -2123,12 +2350,18 @@
       <c r="E40" s="12">
         <v>0.79166666666666663</v>
       </c>
-      <c r="F40" s="11"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="48"/>
-      <c r="J40" s="49"/>
-      <c r="K40" s="50"/>
+      <c r="F40" s="11">
+        <v>43213</v>
+      </c>
+      <c r="G40" s="12">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="H40" s="13">
+        <v>0</v>
+      </c>
+      <c r="I40" s="46"/>
+      <c r="J40" s="47"/>
+      <c r="K40" s="48"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
@@ -2146,12 +2379,18 @@
       <c r="E41" s="12">
         <v>0.79166666666666663</v>
       </c>
-      <c r="F41" s="11"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="48"/>
-      <c r="J41" s="49"/>
-      <c r="K41" s="50"/>
+      <c r="F41" s="11">
+        <v>43213</v>
+      </c>
+      <c r="G41" s="12">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="H41" s="13">
+        <v>0</v>
+      </c>
+      <c r="I41" s="46"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="48"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
@@ -2169,12 +2408,18 @@
       <c r="E42" s="12">
         <v>0.80208333333333337</v>
       </c>
-      <c r="F42" s="11"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="48"/>
-      <c r="J42" s="49"/>
-      <c r="K42" s="50"/>
+      <c r="F42" s="11">
+        <v>43213</v>
+      </c>
+      <c r="G42" s="12">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="H42" s="13">
+        <v>0</v>
+      </c>
+      <c r="I42" s="46"/>
+      <c r="J42" s="47"/>
+      <c r="K42" s="48"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
@@ -2192,12 +2437,18 @@
       <c r="E43" s="12">
         <v>0.80208333333333337</v>
       </c>
-      <c r="F43" s="11"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="48"/>
-      <c r="J43" s="49"/>
-      <c r="K43" s="50"/>
+      <c r="F43" s="11">
+        <v>43213</v>
+      </c>
+      <c r="G43" s="12">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="H43" s="13">
+        <v>0</v>
+      </c>
+      <c r="I43" s="46"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="48"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
@@ -2215,12 +2466,18 @@
       <c r="E44" s="12">
         <v>0.80208333333333337</v>
       </c>
-      <c r="F44" s="11"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="48"/>
-      <c r="J44" s="49"/>
-      <c r="K44" s="50"/>
+      <c r="F44" s="11">
+        <v>43213</v>
+      </c>
+      <c r="G44" s="12">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="H44" s="13">
+        <v>0</v>
+      </c>
+      <c r="I44" s="46"/>
+      <c r="J44" s="47"/>
+      <c r="K44" s="48"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
@@ -2238,12 +2495,18 @@
       <c r="E45" s="12">
         <v>0.80208333333333337</v>
       </c>
-      <c r="F45" s="11"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="48"/>
-      <c r="J45" s="49"/>
-      <c r="K45" s="50"/>
+      <c r="F45" s="11">
+        <v>43213</v>
+      </c>
+      <c r="G45" s="12">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="H45" s="13">
+        <v>0</v>
+      </c>
+      <c r="I45" s="46"/>
+      <c r="J45" s="47"/>
+      <c r="K45" s="48"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
@@ -2261,12 +2524,18 @@
       <c r="E46" s="12">
         <v>0.80208333333333337</v>
       </c>
-      <c r="F46" s="11"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="48"/>
-      <c r="J46" s="49"/>
-      <c r="K46" s="50"/>
+      <c r="F46" s="11">
+        <v>43213</v>
+      </c>
+      <c r="G46" s="12">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="H46" s="13">
+        <v>0</v>
+      </c>
+      <c r="I46" s="46"/>
+      <c r="J46" s="47"/>
+      <c r="K46" s="48"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
@@ -2284,12 +2553,18 @@
       <c r="E47" s="12">
         <v>0.80208333333333337</v>
       </c>
-      <c r="F47" s="11"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="48"/>
-      <c r="J47" s="49"/>
-      <c r="K47" s="50"/>
+      <c r="F47" s="11">
+        <v>43213</v>
+      </c>
+      <c r="G47" s="12">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="H47" s="13">
+        <v>0</v>
+      </c>
+      <c r="I47" s="46"/>
+      <c r="J47" s="47"/>
+      <c r="K47" s="48"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
@@ -2307,12 +2582,18 @@
       <c r="E48" s="12">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F48" s="11"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="48"/>
-      <c r="J48" s="49"/>
-      <c r="K48" s="50"/>
+      <c r="F48" s="11">
+        <v>43213</v>
+      </c>
+      <c r="G48" s="12">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H48" s="13">
+        <v>0</v>
+      </c>
+      <c r="I48" s="46"/>
+      <c r="J48" s="47"/>
+      <c r="K48" s="48"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
@@ -2330,12 +2611,18 @@
       <c r="E49" s="12">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F49" s="11"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="48"/>
-      <c r="J49" s="49"/>
-      <c r="K49" s="50"/>
+      <c r="F49" s="11">
+        <v>43213</v>
+      </c>
+      <c r="G49" s="12">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H49" s="13">
+        <v>0</v>
+      </c>
+      <c r="I49" s="46"/>
+      <c r="J49" s="47"/>
+      <c r="K49" s="48"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
@@ -2353,12 +2640,18 @@
       <c r="E50" s="12">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F50" s="11"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="48"/>
-      <c r="J50" s="49"/>
-      <c r="K50" s="50"/>
+      <c r="F50" s="11">
+        <v>43213</v>
+      </c>
+      <c r="G50" s="12">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H50" s="13">
+        <v>0</v>
+      </c>
+      <c r="I50" s="46"/>
+      <c r="J50" s="47"/>
+      <c r="K50" s="48"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
@@ -2376,12 +2669,18 @@
       <c r="E51" s="12">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F51" s="11"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="48"/>
-      <c r="J51" s="49"/>
-      <c r="K51" s="50"/>
+      <c r="F51" s="11">
+        <v>43213</v>
+      </c>
+      <c r="G51" s="12">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H51" s="13">
+        <v>0</v>
+      </c>
+      <c r="I51" s="46"/>
+      <c r="J51" s="47"/>
+      <c r="K51" s="48"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
@@ -2399,9 +2698,15 @@
       <c r="E52" s="12">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F52" s="11"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="13"/>
+      <c r="F52" s="11">
+        <v>43213</v>
+      </c>
+      <c r="G52" s="12">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H52" s="13">
+        <v>0</v>
+      </c>
       <c r="I52" s="37"/>
       <c r="J52" s="38"/>
       <c r="K52" s="39"/>
@@ -2422,12 +2727,18 @@
       <c r="E53" s="12">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F53" s="11"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="48"/>
-      <c r="J53" s="49"/>
-      <c r="K53" s="50"/>
+      <c r="F53" s="11">
+        <v>43213</v>
+      </c>
+      <c r="G53" s="12">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H53" s="13">
+        <v>0</v>
+      </c>
+      <c r="I53" s="46"/>
+      <c r="J53" s="47"/>
+      <c r="K53" s="48"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
@@ -2445,12 +2756,18 @@
       <c r="E54" s="12">
         <v>0.91666666666666663</v>
       </c>
-      <c r="F54" s="11"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="48"/>
-      <c r="J54" s="49"/>
-      <c r="K54" s="50"/>
+      <c r="F54" s="11">
+        <v>43214</v>
+      </c>
+      <c r="G54" s="12">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="H54" s="13">
+        <v>0</v>
+      </c>
+      <c r="I54" s="46"/>
+      <c r="J54" s="47"/>
+      <c r="K54" s="48"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
@@ -2468,12 +2785,18 @@
       <c r="E55" s="12">
         <v>0.91666666666666663</v>
       </c>
-      <c r="F55" s="11"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="48"/>
-      <c r="J55" s="49"/>
-      <c r="K55" s="50"/>
+      <c r="F55" s="11">
+        <v>43214</v>
+      </c>
+      <c r="G55" s="12">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="H55" s="13">
+        <v>0</v>
+      </c>
+      <c r="I55" s="46"/>
+      <c r="J55" s="47"/>
+      <c r="K55" s="48"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="16" t="s">
@@ -2491,12 +2814,18 @@
       <c r="E56" s="12">
         <v>0.91666666666666663</v>
       </c>
-      <c r="F56" s="11"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="48"/>
-      <c r="J56" s="49"/>
-      <c r="K56" s="50"/>
+      <c r="F56" s="11">
+        <v>43214</v>
+      </c>
+      <c r="G56" s="12">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="H56" s="13">
+        <v>0</v>
+      </c>
+      <c r="I56" s="46"/>
+      <c r="J56" s="47"/>
+      <c r="K56" s="48"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="17"/>
@@ -2632,7 +2961,7 @@
       </c>
       <c r="H66" s="41">
         <f>SUM(I69:J74)</f>
-        <v>0</v>
+        <v>790</v>
       </c>
       <c r="I66" s="14"/>
       <c r="J66" s="14"/>
@@ -2648,10 +2977,10 @@
       <c r="B68" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C68" s="54" t="s">
+      <c r="C68" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="D68" s="54"/>
+      <c r="D68" s="72"/>
       <c r="E68" s="27"/>
       <c r="F68" s="28"/>
       <c r="G68" s="1" t="s">
@@ -2660,10 +2989,10 @@
       <c r="H68" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I68" s="54" t="s">
+      <c r="I68" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="J68" s="54"/>
+      <c r="J68" s="72"/>
       <c r="K68" s="25"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
@@ -2674,19 +3003,24 @@
         <f>COUNTIF(B8:B56,"LE")</f>
         <v>9</v>
       </c>
-      <c r="C69" s="46">
+      <c r="C69" s="67">
         <f>SUMIFS($C$8:$C$56,$B$8:$B$56,"LE")</f>
         <v>135</v>
       </c>
-      <c r="D69" s="47"/>
+      <c r="D69" s="68"/>
       <c r="E69" s="33"/>
       <c r="F69" s="34"/>
       <c r="G69" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="H69" s="42"/>
-      <c r="I69" s="46"/>
-      <c r="J69" s="47"/>
+      <c r="H69" s="42">
+        <f>B69</f>
+        <v>9</v>
+      </c>
+      <c r="I69" s="67">
+        <v>135</v>
+      </c>
+      <c r="J69" s="68"/>
       <c r="K69" s="25"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
@@ -2697,19 +3031,24 @@
         <f>COUNTIF(B8:B56,"LP")</f>
         <v>10</v>
       </c>
-      <c r="C70" s="46">
+      <c r="C70" s="67">
         <f>SUMIFS($C$8:$C$56,$B$8:$B$56,"LP")</f>
         <v>160</v>
       </c>
-      <c r="D70" s="47"/>
+      <c r="D70" s="68"/>
       <c r="E70" s="33"/>
       <c r="F70" s="34"/>
       <c r="G70" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="H70" s="42"/>
-      <c r="I70" s="46"/>
-      <c r="J70" s="47"/>
+      <c r="H70" s="42">
+        <f t="shared" ref="H70:H74" si="0">B70</f>
+        <v>10</v>
+      </c>
+      <c r="I70" s="67">
+        <v>150</v>
+      </c>
+      <c r="J70" s="68"/>
       <c r="K70" s="25"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
@@ -2720,19 +3059,24 @@
         <f>COUNTIF(B8:B56,"LS")</f>
         <v>8</v>
       </c>
-      <c r="C71" s="46">
+      <c r="C71" s="67">
         <f>SUMIFS($C$8:$C$56,$B$8:$B$56,"LS")</f>
         <v>130</v>
       </c>
-      <c r="D71" s="47"/>
+      <c r="D71" s="68"/>
       <c r="E71" s="33"/>
       <c r="F71" s="34"/>
       <c r="G71" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="H71" s="42"/>
-      <c r="I71" s="46"/>
-      <c r="J71" s="47"/>
+      <c r="H71" s="42">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I71" s="67">
+        <v>130</v>
+      </c>
+      <c r="J71" s="68"/>
       <c r="K71" s="25"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
@@ -2743,19 +3087,24 @@
         <f>COUNTIF(B8:B56,"LD")</f>
         <v>7</v>
       </c>
-      <c r="C72" s="46">
+      <c r="C72" s="67">
         <f>SUMIFS($C$8:$C$56,$B$8:$B$56,"LD")</f>
         <v>120</v>
       </c>
-      <c r="D72" s="47"/>
+      <c r="D72" s="68"/>
       <c r="E72" s="33"/>
       <c r="F72" s="34"/>
       <c r="G72" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="H72" s="42"/>
-      <c r="I72" s="46"/>
-      <c r="J72" s="47"/>
+      <c r="H72" s="42">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I72" s="67">
+        <v>120</v>
+      </c>
+      <c r="J72" s="68"/>
       <c r="K72" s="25"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
@@ -2766,19 +3115,24 @@
         <f>COUNTIF(B8:B56,"LC")</f>
         <v>8</v>
       </c>
-      <c r="C73" s="46">
+      <c r="C73" s="67">
         <f>SUMIFS($C$8:$C$56,$B$8:$B$56,"LC")</f>
         <v>140</v>
       </c>
-      <c r="D73" s="47"/>
+      <c r="D73" s="68"/>
       <c r="E73" s="33"/>
       <c r="F73" s="35"/>
       <c r="G73" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="H73" s="42"/>
-      <c r="I73" s="46"/>
-      <c r="J73" s="47"/>
+      <c r="H73" s="42">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I73" s="67">
+        <v>125</v>
+      </c>
+      <c r="J73" s="68"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="26" t="s">
@@ -2788,19 +3142,24 @@
         <f>COUNTIF(B8:B56,"LA")</f>
         <v>7</v>
       </c>
-      <c r="C74" s="46">
+      <c r="C74" s="67">
         <f>SUMIFS($C$8:$C$56,$B$8:$B$56,"LA")</f>
         <v>120</v>
       </c>
-      <c r="D74" s="47"/>
+      <c r="D74" s="68"/>
       <c r="E74" s="33"/>
       <c r="F74" s="34"/>
       <c r="G74" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="H74" s="42"/>
-      <c r="I74" s="46"/>
-      <c r="J74" s="47"/>
+      <c r="H74" s="42">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I74" s="67">
+        <v>130</v>
+      </c>
+      <c r="J74" s="68"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E75" s="28"/>
@@ -2833,22 +3192,22 @@
       <c r="B77" s="42">
         <v>10</v>
       </c>
-      <c r="C77" s="46">
+      <c r="C77" s="67">
         <f>C69</f>
         <v>135</v>
       </c>
-      <c r="D77" s="47"/>
+      <c r="D77" s="68"/>
       <c r="E77" s="43">
         <f>I69</f>
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="F77" s="44">
         <f>C77-E77</f>
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="G77" s="42">
         <f>F77/C77*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
@@ -2858,22 +3217,22 @@
       <c r="B78" s="42">
         <v>11</v>
       </c>
-      <c r="C78" s="46">
-        <f t="shared" ref="C78:C82" si="0">C70</f>
+      <c r="C78" s="67">
+        <f t="shared" ref="C78:C82" si="1">C70</f>
         <v>160</v>
       </c>
-      <c r="D78" s="47"/>
+      <c r="D78" s="68"/>
       <c r="E78" s="43">
-        <f t="shared" ref="E78:E82" si="1">I70</f>
-        <v>0</v>
+        <f t="shared" ref="E78:E82" si="2">I70</f>
+        <v>150</v>
       </c>
       <c r="F78" s="44">
-        <f t="shared" ref="F78:F82" si="2">C78-E78</f>
-        <v>160</v>
+        <f t="shared" ref="F78:F82" si="3">C78-E78</f>
+        <v>10</v>
       </c>
       <c r="G78" s="42">
-        <f t="shared" ref="G78:G82" si="3">F78/C78*100</f>
-        <v>100</v>
+        <f t="shared" ref="G78:G82" si="4">F78/C78*100</f>
+        <v>6.25</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
@@ -2883,22 +3242,22 @@
       <c r="B79" s="42">
         <v>9</v>
       </c>
-      <c r="C79" s="46">
-        <f t="shared" si="0"/>
+      <c r="C79" s="67">
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="D79" s="47"/>
+      <c r="D79" s="68"/>
       <c r="E79" s="43">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F79" s="44">
         <f t="shared" si="2"/>
         <v>130</v>
       </c>
+      <c r="F79" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="G79" s="42">
-        <f t="shared" si="3"/>
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
@@ -2908,22 +3267,22 @@
       <c r="B80" s="42">
         <v>8</v>
       </c>
-      <c r="C80" s="46">
-        <f t="shared" si="0"/>
+      <c r="C80" s="67">
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="D80" s="47"/>
+      <c r="D80" s="68"/>
       <c r="E80" s="43">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F80" s="44">
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
+      <c r="F80" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="G80" s="42">
-        <f t="shared" si="3"/>
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
@@ -2933,22 +3292,22 @@
       <c r="B81" s="42">
         <v>9</v>
       </c>
-      <c r="C81" s="46">
-        <f t="shared" si="0"/>
+      <c r="C81" s="67">
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
-      <c r="D81" s="47"/>
+      <c r="D81" s="68"/>
       <c r="E81" s="43">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>125</v>
       </c>
       <c r="F81" s="44">
-        <f t="shared" si="2"/>
-        <v>140</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="G81" s="42">
-        <f t="shared" si="3"/>
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>10.714285714285714</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
@@ -2958,30 +3317,91 @@
       <c r="B82" s="42">
         <v>9</v>
       </c>
-      <c r="C82" s="46">
-        <f t="shared" si="0"/>
+      <c r="C82" s="67">
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="D82" s="47"/>
+      <c r="D82" s="68"/>
       <c r="E82" s="43">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>130</v>
       </c>
       <c r="F82" s="44">
-        <f t="shared" si="2"/>
-        <v>120</v>
+        <f t="shared" si="3"/>
+        <v>-10</v>
       </c>
       <c r="G82" s="42">
-        <f t="shared" si="3"/>
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>-8.3333333333333321</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A7:K56">
+  <autoFilter ref="A7:K56" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="8" showButton="0"/>
     <filterColumn colId="9" showButton="0"/>
   </autoFilter>
   <mergeCells count="77">
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:I2"/>
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="F3:I4"/>
+    <mergeCell ref="B3:E4"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="I36:K36"/>
     <mergeCell ref="I55:K55"/>
     <mergeCell ref="I56:K56"/>
     <mergeCell ref="I33:K33"/>
@@ -2998,67 +3418,6 @@
     <mergeCell ref="I44:K44"/>
     <mergeCell ref="I47:K47"/>
     <mergeCell ref="I48:K48"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I54:K54"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:I2"/>
-    <mergeCell ref="J1:K2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="F3:I4"/>
-    <mergeCell ref="B3:E4"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Ciclo II/Planeación y requerimientos/PD-Control-de-asignaciones.xlsx
+++ b/Ciclo II/Planeación y requerimientos/PD-Control-de-asignaciones.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\famil\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carloscruzrodriguez/Desktop/METFOR/Ciclo II/Planeación y requerimientos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A2C33B-960C-4261-978D-054DF6514541}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A91BF85-48BB-2740-BF69-9F0EE407F0A2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="12920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Asignaciones" sheetId="1" r:id="rId1"/>
@@ -85,27 +85,6 @@
     <t>Tiempo de actividades</t>
   </si>
   <si>
-    <t>Lider de equipo</t>
-  </si>
-  <si>
-    <t>Lider de Planeación</t>
-  </si>
-  <si>
-    <t>Lider de Soporte</t>
-  </si>
-  <si>
-    <t>Lider de Desarrollo</t>
-  </si>
-  <si>
-    <t>Lider de Calidad</t>
-  </si>
-  <si>
-    <t>Lider de Arquitectura</t>
-  </si>
-  <si>
-    <t>Duracion Total</t>
-  </si>
-  <si>
     <t>Hacer bitácoras de tiempos.</t>
   </si>
   <si>
@@ -157,28 +136,49 @@
     <t>Revisión Especificación de requerimientos de software</t>
   </si>
   <si>
-    <t>Revisión Plan de administración de requerimientosa</t>
-  </si>
-  <si>
     <t>Revisión Plan de calidad</t>
   </si>
   <si>
-    <t>TAREA: PLANEACION Y REQUERIMIENTOS</t>
-  </si>
-  <si>
-    <t>Modificar Especificación detallada de tareas: Ajustar tareas según ciclo 1, ajustar tamaño y relacion tiempo real ciclo 1 con el esperado ciclo 2</t>
-  </si>
-  <si>
-    <t>Modificar Especificación detallada de tareas: Ajustar tareas según ciclo 1, ajustar tamaño y relacion tiempo real ciclo 1 con el esperado ciclo 3</t>
-  </si>
-  <si>
     <t>Modificar Especificación de requerimientos de software: actualizar el modelo y la especificación de casos de uso, escenarios de calidad y el modelo de dominios</t>
   </si>
   <si>
-    <t>Modificar Plan de administración de requerimientos: actualizar el manejo de creación de un requerimiento,  la gestión de cambios y el procedimiento para agregar o modficar requeriminetos</t>
-  </si>
-  <si>
-    <t>Modificar Plan de calidad: Cubrir con metricas el manejo de defectos y de calidad</t>
+    <t>Líder de equipo</t>
+  </si>
+  <si>
+    <t>Líder de Planeación</t>
+  </si>
+  <si>
+    <t>Líder de Soporte</t>
+  </si>
+  <si>
+    <t>Líder de Desarrollo</t>
+  </si>
+  <si>
+    <t>Líder de Calidad</t>
+  </si>
+  <si>
+    <t>Líder de Arquitectura</t>
+  </si>
+  <si>
+    <t>TAREA: PLANEACIÓN Y REQUERIMIENTOS</t>
+  </si>
+  <si>
+    <t>Modificar Especificación detallada de tareas: Ajustar tareas según ciclo 1, ajustar tamaño y relación tiempo real ciclo 1 con el esperado ciclo 2</t>
+  </si>
+  <si>
+    <t>Modificar Especificación detallada de tareas: Ajustar tareas según ciclo 1, ajustar tamaño y relación tiempo real ciclo 1 con el esperado ciclo 3</t>
+  </si>
+  <si>
+    <t>Modificar Plan de administración de requerimientos: actualizar el manejo de creación de un requerimiento,  la gestión de cambios y el procedimiento para agregar o modificar requerimientos</t>
+  </si>
+  <si>
+    <t>Modificar Plan de calidad: Cubrir con métricas el manejo de defectos y de calidad</t>
+  </si>
+  <si>
+    <t>Revisión Plan de administración de requerimientos</t>
+  </si>
+  <si>
+    <t>Duración Total</t>
   </si>
 </sst>
 </file>
@@ -707,6 +707,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="166" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -716,6 +722,27 @@
     <xf numFmtId="166" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="166" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -769,33 +796,6 @@
     </xf>
     <xf numFmtId="166" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1272,110 +1272,110 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I76" sqref="I76"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="53.85546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="53.83203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="5" customWidth="1"/>
     <col min="4" max="4" width="21" style="5" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="28.42578125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="24.7109375" style="6" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="7" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="8" customWidth="1"/>
-    <col min="11" max="11" width="23.5703125" style="8" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="11.42578125" style="2"/>
+    <col min="5" max="5" width="31.1640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="28.5" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="24.6640625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="23.5" style="8" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="11.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="49"/>
-      <c r="B1" s="51" t="s">
+    <row r="1" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="58"/>
+      <c r="B1" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="54"/>
-    </row>
-    <row r="2" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="50"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
-    </row>
-    <row r="3" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="59" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="60"/>
-    </row>
-    <row r="4" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="58"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="66"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="63"/>
+    </row>
+    <row r="2" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="59"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="65"/>
+    </row>
+    <row r="3" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="70" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="69"/>
+    </row>
+    <row r="4" spans="1:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="67"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="75"/>
       <c r="J4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="69" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="71"/>
-    </row>
-    <row r="7" spans="1:11" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="53"/>
+    </row>
+    <row r="7" spans="1:11" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="29" t="s">
         <v>7</v>
       </c>
@@ -1400,15 +1400,15 @@
       <c r="H7" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="I7" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="74"/>
-      <c r="K7" s="75"/>
-    </row>
-    <row r="8" spans="1:11" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I7" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="56"/>
+      <c r="K7" s="57"/>
+    </row>
+    <row r="8" spans="1:11" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>12</v>
@@ -1431,13 +1431,13 @@
       <c r="H8" s="13">
         <v>0</v>
       </c>
-      <c r="I8" s="46"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="48"/>
-    </row>
-    <row r="9" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I8" s="48"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="50"/>
+    </row>
+    <row r="9" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>13</v>
@@ -1460,13 +1460,13 @@
       <c r="H9" s="13">
         <v>0</v>
       </c>
-      <c r="I9" s="46"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="48"/>
-    </row>
-    <row r="10" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I9" s="48"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="50"/>
+    </row>
+    <row r="10" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>17</v>
@@ -1489,13 +1489,13 @@
       <c r="H10" s="13">
         <v>0</v>
       </c>
-      <c r="I10" s="46"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="48"/>
-    </row>
-    <row r="11" spans="1:11" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I10" s="48"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="50"/>
+    </row>
+    <row r="11" spans="1:11" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>14</v>
@@ -1518,16 +1518,16 @@
       <c r="H11" s="13">
         <v>0</v>
       </c>
-      <c r="I11" s="46"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="48"/>
-    </row>
-    <row r="12" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I11" s="48"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="50"/>
+    </row>
+    <row r="12" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C12" s="40">
         <v>30</v>
@@ -1547,13 +1547,13 @@
       <c r="H12" s="13">
         <v>0</v>
       </c>
-      <c r="I12" s="46"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="48"/>
-    </row>
-    <row r="13" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I12" s="48"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="50"/>
+    </row>
+    <row r="13" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>15</v>
@@ -1576,11 +1576,11 @@
       <c r="H13" s="13">
         <v>0</v>
       </c>
-      <c r="I13" s="46"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="48"/>
-    </row>
-    <row r="14" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I13" s="48"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="50"/>
+    </row>
+    <row r="14" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="14" t="s">
         <v>11</v>
       </c>
@@ -1605,13 +1605,13 @@
       <c r="H14" s="13">
         <v>0</v>
       </c>
-      <c r="I14" s="46"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="48"/>
-    </row>
-    <row r="15" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+      <c r="I14" s="48"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="50"/>
+    </row>
+    <row r="15" spans="1:11" ht="36" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>14</v>
@@ -1634,13 +1634,13 @@
       <c r="H15" s="13">
         <v>0</v>
       </c>
-      <c r="I15" s="46"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="48"/>
-    </row>
-    <row r="16" spans="1:11" s="14" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="I15" s="48"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="50"/>
+    </row>
+    <row r="16" spans="1:11" s="14" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A16" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>12</v>
@@ -1663,13 +1663,13 @@
       <c r="H16" s="13">
         <v>0</v>
       </c>
-      <c r="I16" s="46"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="48"/>
-    </row>
-    <row r="17" spans="1:11" s="14" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="I16" s="48"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="50"/>
+    </row>
+    <row r="17" spans="1:11" s="14" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A17" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>13</v>
@@ -1692,16 +1692,16 @@
       <c r="H17" s="13">
         <v>0</v>
       </c>
-      <c r="I17" s="46"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="48"/>
-    </row>
-    <row r="18" spans="1:11" s="14" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="I17" s="48"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="50"/>
+    </row>
+    <row r="18" spans="1:11" s="14" customFormat="1" ht="36" x14ac:dyDescent="0.15">
       <c r="A18" s="10" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C18" s="40">
         <v>40</v>
@@ -1721,13 +1721,13 @@
       <c r="H18" s="13">
         <v>0</v>
       </c>
-      <c r="I18" s="46"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="48"/>
-    </row>
-    <row r="19" spans="1:11" s="14" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="I18" s="48"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="50"/>
+    </row>
+    <row r="19" spans="1:11" s="14" customFormat="1" ht="36" x14ac:dyDescent="0.15">
       <c r="A19" s="10" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>15</v>
@@ -1750,13 +1750,13 @@
       <c r="H19" s="13">
         <v>0</v>
       </c>
-      <c r="I19" s="46"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="48"/>
-    </row>
-    <row r="20" spans="1:11" s="14" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="I19" s="48"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="50"/>
+    </row>
+    <row r="20" spans="1:11" s="14" customFormat="1" ht="36" x14ac:dyDescent="0.15">
       <c r="A20" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>14</v>
@@ -1779,13 +1779,13 @@
       <c r="H20" s="13">
         <v>0</v>
       </c>
-      <c r="I20" s="46"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="48"/>
-    </row>
-    <row r="21" spans="1:11" s="14" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="I20" s="48"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="50"/>
+    </row>
+    <row r="21" spans="1:11" s="14" customFormat="1" ht="36" x14ac:dyDescent="0.15">
       <c r="A21" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>17</v>
@@ -1808,13 +1808,13 @@
       <c r="H21" s="13">
         <v>0</v>
       </c>
-      <c r="I21" s="46"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="48"/>
-    </row>
-    <row r="22" spans="1:11" s="14" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="I21" s="48"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="50"/>
+    </row>
+    <row r="22" spans="1:11" s="14" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A22" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>12</v>
@@ -1837,13 +1837,13 @@
       <c r="H22" s="13">
         <v>0</v>
       </c>
-      <c r="I22" s="46"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="48"/>
-    </row>
-    <row r="23" spans="1:11" s="14" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="I22" s="48"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="50"/>
+    </row>
+    <row r="23" spans="1:11" s="14" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A23" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>13</v>
@@ -1866,13 +1866,13 @@
       <c r="H23" s="13">
         <v>0</v>
       </c>
-      <c r="I23" s="46"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="48"/>
-    </row>
-    <row r="24" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I23" s="48"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="50"/>
+    </row>
+    <row r="24" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="10" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>12</v>
@@ -1895,13 +1895,13 @@
       <c r="H24" s="13">
         <v>0</v>
       </c>
-      <c r="I24" s="46"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="48"/>
-    </row>
-    <row r="25" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I24" s="48"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="50"/>
+    </row>
+    <row r="25" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="10" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>13</v>
@@ -1924,13 +1924,13 @@
       <c r="H25" s="13">
         <v>0</v>
       </c>
-      <c r="I25" s="46"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="48"/>
-    </row>
-    <row r="26" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I25" s="48"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="50"/>
+    </row>
+    <row r="26" spans="1:11" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="10" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>17</v>
@@ -1953,13 +1953,13 @@
       <c r="H26" s="13">
         <v>0</v>
       </c>
-      <c r="I26" s="46"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="48"/>
-    </row>
-    <row r="27" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I26" s="48"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="50"/>
+    </row>
+    <row r="27" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="10" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>14</v>
@@ -1982,16 +1982,16 @@
       <c r="H27" s="13">
         <v>0</v>
       </c>
-      <c r="I27" s="46"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="48"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I27" s="48"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="50"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" s="10" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C28" s="40">
         <v>10</v>
@@ -2011,13 +2011,13 @@
       <c r="H28" s="13">
         <v>0</v>
       </c>
-      <c r="I28" s="46"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="48"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I28" s="48"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="50"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" s="10" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>15</v>
@@ -2040,13 +2040,13 @@
       <c r="H29" s="13">
         <v>0</v>
       </c>
-      <c r="I29" s="46"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="48"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I29" s="48"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="50"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" s="10" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>12</v>
@@ -2069,13 +2069,13 @@
       <c r="H30" s="13">
         <v>0</v>
       </c>
-      <c r="I30" s="46"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="48"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I30" s="48"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="50"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" s="10" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>13</v>
@@ -2098,13 +2098,13 @@
       <c r="H31" s="13">
         <v>0</v>
       </c>
-      <c r="I31" s="46"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="48"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I31" s="48"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="50"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" s="10" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>17</v>
@@ -2127,13 +2127,13 @@
       <c r="H32" s="13">
         <v>0</v>
       </c>
-      <c r="I32" s="46"/>
-      <c r="J32" s="47"/>
-      <c r="K32" s="48"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I32" s="48"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="50"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" s="10" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>14</v>
@@ -2156,16 +2156,16 @@
       <c r="H33" s="13">
         <v>0</v>
       </c>
-      <c r="I33" s="46"/>
-      <c r="J33" s="47"/>
-      <c r="K33" s="48"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I33" s="48"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="50"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34" s="10" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C34" s="40">
         <v>10</v>
@@ -2185,13 +2185,13 @@
       <c r="H34" s="13">
         <v>0</v>
       </c>
-      <c r="I34" s="46"/>
-      <c r="J34" s="47"/>
-      <c r="K34" s="48"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I34" s="48"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="50"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" s="10" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>15</v>
@@ -2214,13 +2214,13 @@
       <c r="H35" s="13">
         <v>0</v>
       </c>
-      <c r="I35" s="46"/>
-      <c r="J35" s="47"/>
-      <c r="K35" s="48"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I35" s="48"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="50"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" s="10" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>12</v>
@@ -2243,13 +2243,13 @@
       <c r="H36" s="13">
         <v>0</v>
       </c>
-      <c r="I36" s="46"/>
-      <c r="J36" s="47"/>
-      <c r="K36" s="48"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I36" s="48"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="50"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" s="10" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>13</v>
@@ -2272,13 +2272,13 @@
       <c r="H37" s="13">
         <v>0</v>
       </c>
-      <c r="I37" s="46"/>
-      <c r="J37" s="47"/>
-      <c r="K37" s="48"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I37" s="48"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="50"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38" s="10" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>17</v>
@@ -2301,13 +2301,13 @@
       <c r="H38" s="13">
         <v>0</v>
       </c>
-      <c r="I38" s="46"/>
-      <c r="J38" s="47"/>
-      <c r="K38" s="48"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I38" s="48"/>
+      <c r="J38" s="49"/>
+      <c r="K38" s="50"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39" s="10" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>14</v>
@@ -2330,16 +2330,16 @@
       <c r="H39" s="13">
         <v>0</v>
       </c>
-      <c r="I39" s="46"/>
-      <c r="J39" s="47"/>
-      <c r="K39" s="48"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I39" s="48"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="50"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40" s="10" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C40" s="40">
         <v>10</v>
@@ -2359,13 +2359,13 @@
       <c r="H40" s="13">
         <v>0</v>
       </c>
-      <c r="I40" s="46"/>
-      <c r="J40" s="47"/>
-      <c r="K40" s="48"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I40" s="48"/>
+      <c r="J40" s="49"/>
+      <c r="K40" s="50"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41" s="10" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>15</v>
@@ -2388,13 +2388,13 @@
       <c r="H41" s="13">
         <v>0</v>
       </c>
-      <c r="I41" s="46"/>
-      <c r="J41" s="47"/>
-      <c r="K41" s="48"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I41" s="48"/>
+      <c r="J41" s="49"/>
+      <c r="K41" s="50"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42" s="10" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>12</v>
@@ -2417,13 +2417,13 @@
       <c r="H42" s="13">
         <v>0</v>
       </c>
-      <c r="I42" s="46"/>
-      <c r="J42" s="47"/>
-      <c r="K42" s="48"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I42" s="48"/>
+      <c r="J42" s="49"/>
+      <c r="K42" s="50"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43" s="10" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>13</v>
@@ -2446,13 +2446,13 @@
       <c r="H43" s="13">
         <v>0</v>
       </c>
-      <c r="I43" s="46"/>
-      <c r="J43" s="47"/>
-      <c r="K43" s="48"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I43" s="48"/>
+      <c r="J43" s="49"/>
+      <c r="K43" s="50"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44" s="10" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>17</v>
@@ -2475,13 +2475,13 @@
       <c r="H44" s="13">
         <v>0</v>
       </c>
-      <c r="I44" s="46"/>
-      <c r="J44" s="47"/>
-      <c r="K44" s="48"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I44" s="48"/>
+      <c r="J44" s="49"/>
+      <c r="K44" s="50"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45" s="10" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B45" s="11" t="s">
         <v>14</v>
@@ -2504,16 +2504,16 @@
       <c r="H45" s="13">
         <v>0</v>
       </c>
-      <c r="I45" s="46"/>
-      <c r="J45" s="47"/>
-      <c r="K45" s="48"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I45" s="48"/>
+      <c r="J45" s="49"/>
+      <c r="K45" s="50"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A46" s="10" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C46" s="40">
         <v>10</v>
@@ -2533,13 +2533,13 @@
       <c r="H46" s="13">
         <v>0</v>
       </c>
-      <c r="I46" s="46"/>
-      <c r="J46" s="47"/>
-      <c r="K46" s="48"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I46" s="48"/>
+      <c r="J46" s="49"/>
+      <c r="K46" s="50"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47" s="10" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>15</v>
@@ -2562,13 +2562,13 @@
       <c r="H47" s="13">
         <v>0</v>
       </c>
-      <c r="I47" s="46"/>
-      <c r="J47" s="47"/>
-      <c r="K47" s="48"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I47" s="48"/>
+      <c r="J47" s="49"/>
+      <c r="K47" s="50"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A48" s="10" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>12</v>
@@ -2591,13 +2591,13 @@
       <c r="H48" s="13">
         <v>0</v>
       </c>
-      <c r="I48" s="46"/>
-      <c r="J48" s="47"/>
-      <c r="K48" s="48"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I48" s="48"/>
+      <c r="J48" s="49"/>
+      <c r="K48" s="50"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A49" s="10" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>13</v>
@@ -2620,13 +2620,13 @@
       <c r="H49" s="13">
         <v>0</v>
       </c>
-      <c r="I49" s="46"/>
-      <c r="J49" s="47"/>
-      <c r="K49" s="48"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I49" s="48"/>
+      <c r="J49" s="49"/>
+      <c r="K49" s="50"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A50" s="10" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>17</v>
@@ -2649,13 +2649,13 @@
       <c r="H50" s="13">
         <v>0</v>
       </c>
-      <c r="I50" s="46"/>
-      <c r="J50" s="47"/>
-      <c r="K50" s="48"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I50" s="48"/>
+      <c r="J50" s="49"/>
+      <c r="K50" s="50"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A51" s="10" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>14</v>
@@ -2678,16 +2678,16 @@
       <c r="H51" s="13">
         <v>0</v>
       </c>
-      <c r="I51" s="46"/>
-      <c r="J51" s="47"/>
-      <c r="K51" s="48"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I51" s="48"/>
+      <c r="J51" s="49"/>
+      <c r="K51" s="50"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A52" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" s="11" t="s">
         <v>27</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>34</v>
       </c>
       <c r="C52" s="40">
         <v>10</v>
@@ -2711,9 +2711,9 @@
       <c r="J52" s="38"/>
       <c r="K52" s="39"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A53" s="10" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B53" s="11" t="s">
         <v>15</v>
@@ -2736,13 +2736,13 @@
       <c r="H53" s="13">
         <v>0</v>
       </c>
-      <c r="I53" s="46"/>
-      <c r="J53" s="47"/>
-      <c r="K53" s="48"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I53" s="48"/>
+      <c r="J53" s="49"/>
+      <c r="K53" s="50"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A54" s="10" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B54" s="11" t="s">
         <v>15</v>
@@ -2765,13 +2765,13 @@
       <c r="H54" s="13">
         <v>0</v>
       </c>
-      <c r="I54" s="46"/>
-      <c r="J54" s="47"/>
-      <c r="K54" s="48"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I54" s="48"/>
+      <c r="J54" s="49"/>
+      <c r="K54" s="50"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A55" s="10" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B55" s="11" t="s">
         <v>13</v>
@@ -2794,13 +2794,13 @@
       <c r="H55" s="13">
         <v>0</v>
       </c>
-      <c r="I55" s="46"/>
-      <c r="J55" s="47"/>
-      <c r="K55" s="48"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I55" s="48"/>
+      <c r="J55" s="49"/>
+      <c r="K55" s="50"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A56" s="16" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B56" s="11" t="s">
         <v>12</v>
@@ -2823,11 +2823,11 @@
       <c r="H56" s="13">
         <v>0</v>
       </c>
-      <c r="I56" s="46"/>
-      <c r="J56" s="47"/>
-      <c r="K56" s="48"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I56" s="48"/>
+      <c r="J56" s="49"/>
+      <c r="K56" s="50"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A57" s="17"/>
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
@@ -2840,7 +2840,7 @@
       <c r="J57" s="17"/>
       <c r="K57" s="17"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A58" s="18"/>
       <c r="B58" s="19"/>
       <c r="C58" s="20"/>
@@ -2853,7 +2853,7 @@
       <c r="J58" s="23"/>
       <c r="K58" s="24"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A59" s="14"/>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
@@ -2866,7 +2866,7 @@
       <c r="J59" s="23"/>
       <c r="K59" s="24"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A60" s="14"/>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
@@ -2879,7 +2879,7 @@
       <c r="J60" s="23"/>
       <c r="K60" s="24"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A61" s="14"/>
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
@@ -2892,7 +2892,7 @@
       <c r="J61" s="23"/>
       <c r="K61" s="23"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A62" s="14"/>
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
@@ -2905,7 +2905,7 @@
       <c r="J62" s="23"/>
       <c r="K62" s="23"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A63" s="14"/>
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
@@ -2918,7 +2918,7 @@
       <c r="J63" s="23"/>
       <c r="K63" s="23"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A64" s="14"/>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
@@ -2931,7 +2931,7 @@
       <c r="J64" s="23"/>
       <c r="K64" s="24"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A65" s="14"/>
       <c r="B65" s="14"/>
       <c r="C65" s="14"/>
@@ -2944,10 +2944,10 @@
       <c r="J65" s="17"/>
       <c r="K65" s="17"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A66" s="14"/>
       <c r="B66" s="31" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="C66" s="41">
         <f>SUM(C69:D74)</f>
@@ -2957,7 +2957,7 @@
       <c r="E66" s="14"/>
       <c r="F66" s="14"/>
       <c r="G66" s="31" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="H66" s="41">
         <f>SUM(I69:J74)</f>
@@ -2967,236 +2967,236 @@
       <c r="J66" s="14"/>
       <c r="K66" s="14"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
       <c r="K67" s="25"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C68" s="72" t="s">
+      <c r="C68" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="D68" s="72"/>
+      <c r="D68" s="54"/>
       <c r="E68" s="27"/>
       <c r="F68" s="28"/>
       <c r="G68" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I68" s="72" t="s">
+      <c r="I68" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="J68" s="72"/>
+      <c r="J68" s="54"/>
       <c r="K68" s="25"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A69" s="15" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B69" s="42">
         <f>COUNTIF(B8:B56,"LE")</f>
         <v>9</v>
       </c>
-      <c r="C69" s="67">
+      <c r="C69" s="46">
         <f>SUMIFS($C$8:$C$56,$B$8:$B$56,"LE")</f>
         <v>135</v>
       </c>
-      <c r="D69" s="68"/>
+      <c r="D69" s="47"/>
       <c r="E69" s="33"/>
       <c r="F69" s="34"/>
       <c r="G69" s="32" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="H69" s="42">
         <f>B69</f>
         <v>9</v>
       </c>
-      <c r="I69" s="67">
+      <c r="I69" s="46">
         <v>135</v>
       </c>
-      <c r="J69" s="68"/>
+      <c r="J69" s="47"/>
       <c r="K69" s="25"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A70" s="15" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B70" s="42">
         <f>COUNTIF(B8:B56,"LP")</f>
         <v>10</v>
       </c>
-      <c r="C70" s="67">
+      <c r="C70" s="46">
         <f>SUMIFS($C$8:$C$56,$B$8:$B$56,"LP")</f>
         <v>160</v>
       </c>
-      <c r="D70" s="68"/>
+      <c r="D70" s="47"/>
       <c r="E70" s="33"/>
       <c r="F70" s="34"/>
       <c r="G70" s="32" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="H70" s="42">
         <f t="shared" ref="H70:H74" si="0">B70</f>
         <v>10</v>
       </c>
-      <c r="I70" s="67">
+      <c r="I70" s="46">
         <v>150</v>
       </c>
-      <c r="J70" s="68"/>
+      <c r="J70" s="47"/>
       <c r="K70" s="25"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A71" s="15" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B71" s="42">
         <f>COUNTIF(B8:B56,"LS")</f>
         <v>8</v>
       </c>
-      <c r="C71" s="67">
+      <c r="C71" s="46">
         <f>SUMIFS($C$8:$C$56,$B$8:$B$56,"LS")</f>
         <v>130</v>
       </c>
-      <c r="D71" s="68"/>
+      <c r="D71" s="47"/>
       <c r="E71" s="33"/>
       <c r="F71" s="34"/>
       <c r="G71" s="32" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="H71" s="42">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="I71" s="67">
+      <c r="I71" s="46">
         <v>130</v>
       </c>
-      <c r="J71" s="68"/>
+      <c r="J71" s="47"/>
       <c r="K71" s="25"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A72" s="15" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B72" s="42">
         <f>COUNTIF(B8:B56,"LD")</f>
         <v>7</v>
       </c>
-      <c r="C72" s="67">
+      <c r="C72" s="46">
         <f>SUMIFS($C$8:$C$56,$B$8:$B$56,"LD")</f>
         <v>120</v>
       </c>
-      <c r="D72" s="68"/>
+      <c r="D72" s="47"/>
       <c r="E72" s="33"/>
       <c r="F72" s="34"/>
       <c r="G72" s="32" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="H72" s="42">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="I72" s="67">
+      <c r="I72" s="46">
         <v>120</v>
       </c>
-      <c r="J72" s="68"/>
+      <c r="J72" s="47"/>
       <c r="K72" s="25"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A73" s="15" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B73" s="42">
         <f>COUNTIF(B8:B56,"LC")</f>
         <v>8</v>
       </c>
-      <c r="C73" s="67">
+      <c r="C73" s="46">
         <f>SUMIFS($C$8:$C$56,$B$8:$B$56,"LC")</f>
         <v>140</v>
       </c>
-      <c r="D73" s="68"/>
+      <c r="D73" s="47"/>
       <c r="E73" s="33"/>
       <c r="F73" s="35"/>
       <c r="G73" s="32" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="H73" s="42">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="I73" s="67">
+      <c r="I73" s="46">
         <v>125</v>
       </c>
-      <c r="J73" s="68"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J73" s="47"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A74" s="26" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B74" s="42">
         <f>COUNTIF(B8:B56,"LA")</f>
         <v>7</v>
       </c>
-      <c r="C74" s="67">
+      <c r="C74" s="46">
         <f>SUMIFS($C$8:$C$56,$B$8:$B$56,"LA")</f>
         <v>120</v>
       </c>
-      <c r="D74" s="68"/>
+      <c r="D74" s="47"/>
       <c r="E74" s="33"/>
       <c r="F74" s="34"/>
       <c r="G74" s="36" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="H74" s="42">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="I74" s="67">
+      <c r="I74" s="46">
         <v>130</v>
       </c>
-      <c r="J74" s="68"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J74" s="47"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
       <c r="E75" s="28"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A76" s="45" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B76" s="45" t="s">
         <v>18</v>
       </c>
       <c r="C76" s="45" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D76" s="45"/>
       <c r="E76" s="45" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F76" s="45" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G76" s="45" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A77" s="42" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B77" s="42">
         <v>10</v>
       </c>
-      <c r="C77" s="67">
+      <c r="C77" s="46">
         <f>C69</f>
         <v>135</v>
       </c>
-      <c r="D77" s="68"/>
+      <c r="D77" s="47"/>
       <c r="E77" s="43">
         <f>I69</f>
         <v>135</v>
@@ -3210,18 +3210,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A78" s="42" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B78" s="42">
         <v>11</v>
       </c>
-      <c r="C78" s="67">
+      <c r="C78" s="46">
         <f t="shared" ref="C78:C82" si="1">C70</f>
         <v>160</v>
       </c>
-      <c r="D78" s="68"/>
+      <c r="D78" s="47"/>
       <c r="E78" s="43">
         <f t="shared" ref="E78:E82" si="2">I70</f>
         <v>150</v>
@@ -3235,18 +3235,18 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A79" s="42" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B79" s="42">
         <v>9</v>
       </c>
-      <c r="C79" s="67">
+      <c r="C79" s="46">
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="D79" s="68"/>
+      <c r="D79" s="47"/>
       <c r="E79" s="43">
         <f t="shared" si="2"/>
         <v>130</v>
@@ -3260,18 +3260,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A80" s="42" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B80" s="42">
         <v>8</v>
       </c>
-      <c r="C80" s="67">
+      <c r="C80" s="46">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="D80" s="68"/>
+      <c r="D80" s="47"/>
       <c r="E80" s="43">
         <f t="shared" si="2"/>
         <v>120</v>
@@ -3285,18 +3285,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A81" s="42" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B81" s="42">
         <v>9</v>
       </c>
-      <c r="C81" s="67">
+      <c r="C81" s="46">
         <f t="shared" si="1"/>
         <v>140</v>
       </c>
-      <c r="D81" s="68"/>
+      <c r="D81" s="47"/>
       <c r="E81" s="43">
         <f t="shared" si="2"/>
         <v>125</v>
@@ -3310,18 +3310,18 @@
         <v>10.714285714285714</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A82" s="42" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B82" s="42">
         <v>9</v>
       </c>
-      <c r="C82" s="67">
+      <c r="C82" s="46">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="D82" s="68"/>
+      <c r="D82" s="47"/>
       <c r="E82" s="43">
         <f t="shared" si="2"/>
         <v>130</v>
@@ -3341,12 +3341,61 @@
     <filterColumn colId="9" showButton="0"/>
   </autoFilter>
   <mergeCells count="77">
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="I55:K55"/>
+    <mergeCell ref="I56:K56"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="I53:K53"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:I2"/>
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="F3:I4"/>
+    <mergeCell ref="B3:E4"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I68:J68"/>
     <mergeCell ref="I69:J69"/>
     <mergeCell ref="I70:J70"/>
     <mergeCell ref="I71:J71"/>
@@ -3363,61 +3412,12 @@
     <mergeCell ref="I23:K23"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:I2"/>
-    <mergeCell ref="J1:K2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="F3:I4"/>
-    <mergeCell ref="B3:E4"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I54:K54"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="I55:K55"/>
-    <mergeCell ref="I56:K56"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="I53:K53"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
